--- a/downloaded_files/EECS306_Lecture-35313.xlsx
+++ b/downloaded_files/EECS306_Lecture-35313.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -103,6 +103,15 @@
   </x:si>
   <x:si>
     <x:t>Julia Emad Makin Kamel Georgy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حبيبه حسن محمود حسن فرغلى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Habiba Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1220122</x:t>
@@ -467,7 +476,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -767,7 +776,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T38"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1114,7 +1123,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.7033900463</x:v>
+        <x:v>45924.0342148495</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1146,7 +1155,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4145456019</x:v>
+        <x:v>45906.7033900463</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1178,7 +1187,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.8596338773</x:v>
+        <x:v>45906.4145456019</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1210,7 +1219,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4188826389</x:v>
+        <x:v>45912.8596338773</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1242,7 +1251,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4152021991</x:v>
+        <x:v>45907.4188826389</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1274,7 +1283,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4145929051</x:v>
+        <x:v>45906.4152021991</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1306,7 +1315,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4143725694</x:v>
+        <x:v>45906.4145929051</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1334,9 +1343,11 @@
       <x:c r="C17" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s"/>
+      <x:c r="D17" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4258263079</x:v>
+        <x:v>45906.4143725694</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1359,16 +1370,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="D18" s="2" t="s">
         <x:v>54</x:v>
       </x:c>
+      <x:c r="D18" s="2" t="s"/>
       <x:c r="E18" s="3">
-        <x:v>45912.8698265857</x:v>
+        <x:v>45906.4258263079</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1400,7 +1409,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6642143519</x:v>
+        <x:v>45912.8698265857</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1432,7 +1441,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4143798958</x:v>
+        <x:v>45906.6642143519</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1464,7 +1473,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4154020023</x:v>
+        <x:v>45907.4143798958</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1496,7 +1505,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4155153125</x:v>
+        <x:v>45906.4154020023</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1528,7 +1537,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6660294792</x:v>
+        <x:v>45906.4155153125</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1560,7 +1569,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.8691628472</x:v>
+        <x:v>45906.6660294792</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1592,7 +1601,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6798916319</x:v>
+        <x:v>45912.8691628472</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1624,7 +1633,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4143330671</x:v>
+        <x:v>45906.6798916319</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1656,7 +1665,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.4254305903</x:v>
+        <x:v>45906.4143330671</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1688,7 +1697,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4143855324</x:v>
+        <x:v>45909.4254305903</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1720,7 +1729,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4146067477</x:v>
+        <x:v>45907.4143855324</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1752,7 +1761,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45912.8598597222</x:v>
+        <x:v>45906.4146067477</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1784,7 +1793,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6651695602</x:v>
+        <x:v>45912.8598597222</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1816,7 +1825,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6660860764</x:v>
+        <x:v>45906.6651695602</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1848,7 +1857,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.5004795139</x:v>
+        <x:v>45906.6660860764</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1880,7 +1889,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6650138542</x:v>
+        <x:v>45907.5004795139</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1912,7 +1921,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45912.8600202199</x:v>
+        <x:v>45906.6650138542</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1944,7 +1953,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.6647616898</x:v>
+        <x:v>45912.8600202199</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1976,7 +1985,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.4142618056</x:v>
+        <x:v>45906.6647616898</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -1993,6 +2002,38 @@
       <x:c r="R37" s="2" t="s"/>
       <x:c r="S37" s="2" t="s"/>
       <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="E38" s="3">
+        <x:v>45906.4142618056</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS306_Lecture-35313.xlsx
+++ b/downloaded_files/EECS306_Lecture-35313.xlsx
@@ -159,6 +159,15 @@
     <x:t>SALMA BAHAAELDIN ALI KHALED MOHAMED MAHMOUD</x:t>
   </x:si>
   <x:si>
+    <x:t>1200347</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سهيله احمد سليمان عبدالرحمن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sohaila ahmed Soliman Abdelrahman</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210015</x:t>
   </x:si>
   <x:si>
@@ -307,15 +316,6 @@
   </x:si>
   <x:si>
     <x:t>Moaaz Emam Ahmed Emam Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4220145</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نور الدين حسن حامد محمد خلف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nour Eldin Hassan Hamed Khalaf</x:t>
   </x:si>
   <x:si>
     <x:t>1230286</x:t>
@@ -1315,7 +1315,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4145929051</x:v>
+        <x:v>45906.4148769676</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1347,7 +1347,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4143725694</x:v>
+        <x:v>45906.4145929051</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1375,9 +1375,11 @@
       <x:c r="C18" s="2" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s"/>
+      <x:c r="D18" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4258263079</x:v>
+        <x:v>45906.4143725694</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1400,16 +1402,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="D19" s="2" t="s">
         <x:v>57</x:v>
       </x:c>
+      <x:c r="D19" s="2" t="s"/>
       <x:c r="E19" s="3">
-        <x:v>45912.8698265857</x:v>
+        <x:v>45906.4258263079</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1441,7 +1441,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6642143519</x:v>
+        <x:v>45912.8698265857</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1473,7 +1473,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4143798958</x:v>
+        <x:v>45906.6642143519</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1505,7 +1505,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4154020023</x:v>
+        <x:v>45907.4143798958</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1537,7 +1537,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4155153125</x:v>
+        <x:v>45906.4154020023</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1569,7 +1569,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6660294792</x:v>
+        <x:v>45906.4155153125</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1601,7 +1601,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45912.8691628472</x:v>
+        <x:v>45906.6660294792</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1633,7 +1633,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6798916319</x:v>
+        <x:v>45912.8691628472</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1665,7 +1665,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4143330671</x:v>
+        <x:v>45906.6798916319</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1697,7 +1697,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.4254305903</x:v>
+        <x:v>45906.4143330671</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1729,7 +1729,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4143855324</x:v>
+        <x:v>45909.4254305903</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1761,7 +1761,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4146067477</x:v>
+        <x:v>45907.4143855324</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1793,7 +1793,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45912.8598597222</x:v>
+        <x:v>45906.4146067477</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1825,7 +1825,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6651695602</x:v>
+        <x:v>45912.8598597222</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1857,7 +1857,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6660860764</x:v>
+        <x:v>45906.6651695602</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
